--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,32 +719,83 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+      <c r="A10" s="9">
+        <v>43959</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8835</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>43</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>193.07000000000002</v>
       </c>
       <c r="G10" s="12">
-        <f>SUM(G4:G9)</f>
-        <v>1846.5200000000002</v>
-      </c>
-      <c r="H10" s="12">
-        <f>SUM(H4:H9)</f>
-        <v>1846.5200000000002</v>
+        <f>SUM(F10,F11)</f>
+        <v>256.25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>256.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5735</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="5"/>
+        <v>63.180000000000007</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(G4:G11)</f>
+        <v>2102.7700000000004</v>
+      </c>
+      <c r="H12" s="12">
+        <f>SUM(H4:H11)</f>
+        <v>2102.7700000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,32 +770,83 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="9">
+        <v>43990</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8925</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>90</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>404.1</v>
       </c>
       <c r="G12" s="12">
-        <f>SUM(G4:G11)</f>
-        <v>2102.7700000000004</v>
-      </c>
-      <c r="H12" s="12">
-        <f>SUM(H4:H11)</f>
-        <v>2102.7700000000004</v>
+        <f>SUM(F12,F13)</f>
+        <v>591.21</v>
+      </c>
+      <c r="H12" s="2">
+        <v>591.21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5812</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
+        <v>187.11</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G4:G13)</f>
+        <v>2693.9800000000005</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H4:H13)</f>
+        <v>2693.9800000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -821,32 +821,83 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5" t="s">
-        <v>10</v>
+      <c r="A14" s="9">
+        <v>44040</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8984</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="8">SUM(C14,-C12)</f>
+        <v>59</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>277.89</v>
       </c>
       <c r="G14" s="12">
-        <f>SUM(G4:G13)</f>
-        <v>2693.9800000000005</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H4:H13)</f>
-        <v>2693.9800000000005</v>
+        <f>SUM(F14,F15)</f>
+        <v>339.09</v>
+      </c>
+      <c r="H14" s="2">
+        <v>339.09</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5836</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="9"/>
+        <v>61.199999999999996</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(G4:G15)</f>
+        <v>3033.0700000000006</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H4:H15)</f>
+        <v>3033.0700000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,7 +489,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -872,32 +872,83 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="9">
+        <v>44096</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9118</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="10">SUM(C16,-C14)</f>
+        <v>134</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>631.14</v>
+      </c>
+      <c r="G16" s="12">
+        <f>SUM(F16,F17)</f>
+        <v>847.89</v>
+      </c>
+      <c r="H16" s="2">
+        <v>847.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5921</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="11"/>
+        <v>216.74999999999997</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G18" s="12">
         <f>SUM(G4:G15)</f>
         <v>3033.0700000000006</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H18" s="12">
         <f>SUM(H4:H15)</f>
         <v>3033.0700000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -923,32 +923,83 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
+      <c r="A18" s="9">
+        <v>44146</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9418</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="12">SUM(C18,-C16)</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>1413</v>
       </c>
       <c r="G18" s="12">
-        <f>SUM(G4:G15)</f>
-        <v>3033.0700000000006</v>
-      </c>
-      <c r="H18" s="12">
-        <f>SUM(H4:H15)</f>
-        <v>3033.0700000000006</v>
+        <f>SUM(F18,F19)</f>
+        <v>2098.9499999999998</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2098.9499999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6190</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="12"/>
+        <v>269</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="13"/>
+        <v>685.94999999999993</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(G4:G19)</f>
+        <v>5979.91</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H4:H19)</f>
+        <v>5979.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,7 +489,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
@@ -974,32 +974,83 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="9">
+        <v>44204</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9618</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="14">SUM(C20,-C18)</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="15">D20*E20</f>
+        <v>942</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>1528.5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1528.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6420</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="14"/>
+        <v>230</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="15"/>
+        <v>586.5</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>SUM(G4:G19)</f>
         <v>5979.91</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H22" s="12">
         <f>SUM(H4:H19)</f>
         <v>5979.91</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1025,32 +1025,134 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="5" t="s">
+      <c r="A22" s="9">
+        <v>44238</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9738</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="16">SUM(C22,-C20)</f>
+        <v>120</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="17">D22*E22</f>
+        <v>565.20000000000005</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(F22,F23)</f>
+        <v>743.7</v>
+      </c>
+      <c r="H22" s="2">
+        <v>743.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6490</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="17"/>
+        <v>178.5</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>44298</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9888</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="18">SUM(C24,-C22)</f>
+        <v>150</v>
+      </c>
+      <c r="E24" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="19">D24*E24</f>
+        <v>706.5</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(F24,F25)</f>
+        <v>961.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>961.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6590</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="19"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G26" s="12">
         <f>SUM(G4:G19)</f>
         <v>5979.91</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H26" s="12">
         <f>SUM(H4:H19)</f>
         <v>5979.91</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1127,32 +1127,83 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="5" t="s">
+      <c r="A26" s="9">
+        <v>44343</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10161</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="20">SUM(C26,-C24)</f>
+        <v>273</v>
+      </c>
+      <c r="E26" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="21">D26*E26</f>
+        <v>1285.83</v>
+      </c>
+      <c r="G26" s="12">
+        <f>SUM(F26,F27)</f>
+        <v>1311.33</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1311.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="G26" s="12">
+      <c r="E27" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="21"/>
+        <v>25.5</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="12">
         <f>SUM(G4:G19)</f>
         <v>5979.91</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H28" s="12">
         <f>SUM(H4:H19)</f>
         <v>5979.91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1178,32 +1178,83 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="5" t="s">
-        <v>10</v>
+      <c r="A28" s="9">
+        <v>44377</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10251</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="22">SUM(C28,-C26)</f>
+        <v>90</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="23">D28*E28</f>
+        <v>423.9</v>
       </c>
       <c r="G28" s="12">
-        <f>SUM(G4:G19)</f>
-        <v>5979.91</v>
-      </c>
-      <c r="H28" s="12">
-        <f>SUM(H4:H19)</f>
-        <v>5979.91</v>
+        <f>SUM(F28,F29)</f>
+        <v>620.25</v>
+      </c>
+      <c r="H28" s="2">
+        <v>620.25</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6677</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="22"/>
+        <v>77</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="23"/>
+        <v>196.35</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="12">
+        <f>SUM(G4:G29)</f>
+        <v>11145.19</v>
+      </c>
+      <c r="H30" s="12">
+        <f>SUM(H4:H29)</f>
+        <v>11145.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -489,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1229,32 +1229,134 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="5" t="s">
+      <c r="A30" s="9">
+        <v>44419</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10351</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="24">SUM(C30,-C28)</f>
+        <v>100</v>
+      </c>
+      <c r="E30" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F31" si="25">D30*E30</f>
+        <v>496</v>
+      </c>
+      <c r="G30" s="12">
+        <f>SUM(F30,F31)</f>
+        <v>656.8</v>
+      </c>
+      <c r="H30" s="2">
+        <v>656.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6737</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="25"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>44445</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10421</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="26">SUM(C32,-C30)</f>
+        <v>70</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F33" si="27">D32*E32</f>
+        <v>347.2</v>
+      </c>
+      <c r="G32" s="12">
+        <f>SUM(F32,F33)</f>
+        <v>454.4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>454.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6777</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="27"/>
+        <v>107.2</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G34" s="12">
         <f>SUM(G4:G29)</f>
         <v>11145.19</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H34" s="12">
         <f>SUM(H4:H29)</f>
         <v>11145.19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/43ee.xlsx
+++ b/sputnik/personal/ee/43ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -471,7 +471,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -519,13 +519,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44480</v>
+        <v>44543</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>10471</v>
+        <v>10571</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
@@ -540,10 +540,10 @@
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>290.88</v>
+        <v>419.52</v>
       </c>
       <c r="H2" s="2">
-        <v>290.88</v>
+        <v>419.52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -552,49 +552,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>6793</v>
+        <v>6897</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E3" s="10">
         <v>2.68</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>42.88</v>
+        <v>171.52</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44445</v>
+        <v>44516</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10421</v>
+        <v>10521</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9">
         <v>4.96</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
-        <v>347.2</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>248</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>454.4</v>
+        <v>355.2</v>
       </c>
       <c r="H4" s="2">
-        <v>454.4</v>
+        <v>355.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>6777</v>
+        <v>6833</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
@@ -620,32 +620,32 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44419</v>
+      <c r="A6" s="12">
+        <v>44480</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10351</v>
+        <v>10471</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>100</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>50</v>
       </c>
       <c r="E6" s="9">
         <v>4.96</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="3"/>
-        <v>496</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>248</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>656.8</v>
+        <v>290.88</v>
       </c>
       <c r="H6" s="2">
-        <v>656.8</v>
+        <v>290.88</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -654,37 +654,50 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>6737</v>
+        <v>6793</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="E7" s="10">
         <v>2.68</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
-        <v>160.80000000000001</v>
+        <f t="shared" si="5"/>
+        <v>42.88</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>44377</v>
+      <c r="A8" s="12">
+        <v>44445</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10251</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="2"/>
+        <v>10421</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>70</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F11" si="7">D8*E8</f>
+        <v>347.2</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>454.4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>454.4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -692,13 +705,102 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>6677</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
+        <v>6777</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="7"/>
+        <v>107.2</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44419</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10351</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(C10,-C12)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="7"/>
+        <v>496</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>656.8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>656.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6737</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C13)</f>
+        <v>60</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44377</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10251</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6677</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
